--- a/datos/distritos_sanitarios.xlsx
+++ b/datos/distritos_sanitarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Territorio</t>
   </si>
@@ -155,6 +155,24 @@
   </si>
   <si>
     <t>Poniente de Almería</t>
+  </si>
+  <si>
+    <t>Almería (distrito)</t>
+  </si>
+  <si>
+    <t>Córdoba (distrito)</t>
+  </si>
+  <si>
+    <t>Granada (distrito)</t>
+  </si>
+  <si>
+    <t>Jaén (distrito)</t>
+  </si>
+  <si>
+    <t>Málaga (distrito)</t>
+  </si>
+  <si>
+    <t>Sevilla (distrito)</t>
   </si>
 </sst>
 </file>
@@ -985,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1037,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1074,7 +1092,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1118,7 +1136,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1173,7 +1191,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1250,7 +1268,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1294,7 +1312,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
